--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -540,10 +540,10 @@
         <v>3.424777</v>
       </c>
       <c r="I2">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J2">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>129.8307836666667</v>
+        <v>24.336792</v>
       </c>
       <c r="N2">
-        <v>389.492351</v>
+        <v>73.01037599999999</v>
       </c>
       <c r="O2">
-        <v>0.4232533182703918</v>
+        <v>0.1284781564291437</v>
       </c>
       <c r="P2">
-        <v>0.4232533182703918</v>
+        <v>0.1284781564291437</v>
       </c>
       <c r="Q2">
-        <v>148.2138272645252</v>
+        <v>27.782695165128</v>
       </c>
       <c r="R2">
-        <v>1333.924445380727</v>
+        <v>250.044256486152</v>
       </c>
       <c r="S2">
-        <v>0.2421175737913929</v>
+        <v>0.0503726970866786</v>
       </c>
       <c r="T2">
-        <v>0.2421175737913929</v>
+        <v>0.05037269708667858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.424777</v>
       </c>
       <c r="I3">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J3">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>354.918617</v>
       </c>
       <c r="O3">
-        <v>0.3856827533981234</v>
+        <v>0.6245590297266973</v>
       </c>
       <c r="P3">
-        <v>0.3856827533981234</v>
+        <v>0.6245590297266973</v>
       </c>
       <c r="Q3">
         <v>135.0574573748232</v>
@@ -632,10 +632,10 @@
         <v>1215.517116373409</v>
       </c>
       <c r="S3">
-        <v>0.2206257304432575</v>
+        <v>0.2448721533027565</v>
       </c>
       <c r="T3">
-        <v>0.2206257304432575</v>
+        <v>0.2448721533027565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.424777</v>
       </c>
       <c r="I4">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J4">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.60787966666667</v>
+        <v>46.78057966666666</v>
       </c>
       <c r="N4">
-        <v>175.823639</v>
+        <v>140.341739</v>
       </c>
       <c r="O4">
-        <v>0.1910639283314847</v>
+        <v>0.2469628138441591</v>
       </c>
       <c r="P4">
-        <v>0.1910639283314847</v>
+        <v>0.2469628138441591</v>
       </c>
       <c r="Q4">
-        <v>66.90630610038923</v>
+        <v>53.40435109635588</v>
       </c>
       <c r="R4">
-        <v>602.156754903503</v>
+        <v>480.639159867203</v>
       </c>
       <c r="S4">
-        <v>0.1092960947257569</v>
+        <v>0.09682722230145352</v>
       </c>
       <c r="T4">
-        <v>0.1092960947257569</v>
+        <v>0.09682722230145351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H5">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I5">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J5">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>129.8307836666667</v>
+        <v>24.336792</v>
       </c>
       <c r="N5">
-        <v>389.492351</v>
+        <v>73.01037599999999</v>
       </c>
       <c r="O5">
-        <v>0.4232533182703918</v>
+        <v>0.1284781564291437</v>
       </c>
       <c r="P5">
-        <v>0.4232533182703918</v>
+        <v>0.1284781564291437</v>
       </c>
       <c r="Q5">
-        <v>110.883408929137</v>
+        <v>43.078498733352</v>
       </c>
       <c r="R5">
-        <v>997.950680362233</v>
+        <v>387.706488600168</v>
       </c>
       <c r="S5">
-        <v>0.1811357444789989</v>
+        <v>0.07810545934246514</v>
       </c>
       <c r="T5">
-        <v>0.1811357444789989</v>
+        <v>0.07810545934246513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H6">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I6">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J6">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>354.918617</v>
       </c>
       <c r="O6">
-        <v>0.3856827533981234</v>
+        <v>0.6245590297266973</v>
       </c>
       <c r="P6">
-        <v>0.3856827533981234</v>
+        <v>0.6245590297266973</v>
       </c>
       <c r="Q6">
-        <v>101.040716317879</v>
+        <v>209.4135386027534</v>
       </c>
       <c r="R6">
-        <v>909.3664468609111</v>
+        <v>1884.721847424781</v>
       </c>
       <c r="S6">
-        <v>0.1650570229548659</v>
+        <v>0.3796868764239408</v>
       </c>
       <c r="T6">
-        <v>0.1650570229548659</v>
+        <v>0.3796868764239408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H7">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I7">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J7">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.60787966666667</v>
+        <v>46.78057966666666</v>
       </c>
       <c r="N7">
-        <v>175.823639</v>
+        <v>140.341739</v>
       </c>
       <c r="O7">
-        <v>0.1910639283314847</v>
+        <v>0.2469628138441591</v>
       </c>
       <c r="P7">
-        <v>0.1910639283314847</v>
+        <v>0.2469628138441591</v>
       </c>
       <c r="Q7">
-        <v>50.05470431599301</v>
+        <v>82.80619491328078</v>
       </c>
       <c r="R7">
-        <v>450.492338843937</v>
+        <v>745.255754219527</v>
       </c>
       <c r="S7">
-        <v>0.08176783360572787</v>
+        <v>0.1501355915427056</v>
       </c>
       <c r="T7">
-        <v>0.08176783360572787</v>
+        <v>0.1501355915427056</v>
       </c>
     </row>
   </sheetData>
